--- a/datamining/final_data/sorted1975_nltk.xlsx
+++ b/datamining/final_data/sorted1975_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LY2"/>
+  <dimension ref="A1:KF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,1672 +447,1447 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>book</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>myopia</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>view</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>review</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>children</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>education</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>myopia</t>
+          <t>child</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>teach</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>toys</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>attics</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>imagery</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>development</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>good</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>training</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>teach</t>
+          <t>chilcote</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>analogy</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>imagery</t>
+          <t>imagination</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>toys</t>
+          <t>affective</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>attics</t>
+          <t>read</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>mothers</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>measurement</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>analogy</t>
+          <t>concerns</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>imagination</t>
+          <t>students</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>chilcote</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>affective</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>young</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>production</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>model</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>criterion</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>mothers</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>women</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>concerns</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>ways</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>little</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>mathways</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>jamboree</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>journal</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>xii</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>autumn</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>xi</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>xiii</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>winter</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>criterion</t>
+          <t>xiv</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>spring</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>scientific</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>xiii</t>
+          <t>divergent</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>jamboree</t>
+          <t>lets</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>behavioral</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>autumn</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>xii</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>xiv</t>
+          <t>simulation</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>winter</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>xi</t>
+          <t>revisited</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>gowan</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>world</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>v.</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>love</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>evolution</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>divergent</t>
+          <t>stenhouse</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>scientific</t>
+          <t>vii</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>lets</t>
+          <t>express</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>mathways</t>
+          <t>xviii</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>background</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>behavioral</t>
+          <t>math</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>biographical</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>appreciation</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>gowan</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>background</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>xviii</t>
+          <t>sex-roles</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>biographical</t>
+          <t>written</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>beginning</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>i.</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>prompted</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>came</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>ii</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>another</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>metric</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>jj</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
           <t>gallagher</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>jj</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>little</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>math</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>happy</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>mother</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>owe</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>different</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>culturally</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>anything</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>vi</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>iii</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>eysenck</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>hj</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>culturally</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>different</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>influence</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>sex-roles</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>written</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>self-directed</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>giftedness</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>varieties</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>retooling</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>goes</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>talent</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>vividness</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>readers</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>perceptions</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>iv</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>readers</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>helpful</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>xv</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>cards</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>conclusions</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>methodologic</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>empathy</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>bias</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>importance</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>measuring</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>metaphorical</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>abilities</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>enhance</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>preserve</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>script</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>xvi</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>ii</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>came</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>script</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>conclusions</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>evolution</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>stenhouse</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>world</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>program</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>psychedelic</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>ta</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>jc</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>gateway</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>present</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>gateway</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>vividness</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>self</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>perceptions</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>cards</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>task</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>v.</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>simulation</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>psychedelic</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>jc</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>metaphorical</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>measuring</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>ta</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>revisited</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>doing</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>importance</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>ringness</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>giftedness</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>varieties</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>love</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>helpful</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>xv</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>priority</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>self-directed</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>prompted</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>i.</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>beginning</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>vii</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>express</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>appreciation</t>
-        </is>
-      </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>preserve</t>
+          <t>differential</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>implementing</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>enhance</t>
+          <t>less</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>ideas</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>assessing</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>professors</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>educational</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>games</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>glazier</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>ideal</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>provisional</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
           <t>study</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>provisional</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>professors</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>criteria</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>judged</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>preadolescent</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>boys</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>programs</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>solving</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>dimension</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>solving</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>concrete</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>scorecard</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>abstract</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>childs</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>schools</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>alternative</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>boredom</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>childs</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>schools</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>answer</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>concrete</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>owe</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>methodologic</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>empathy</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>bias</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>about</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>talent</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>retooling</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>abstract</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>vi</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>goes</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>anything</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>scorecard</t>
+          <t>stimuli</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>iii</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>blocks</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>styles</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>reflective</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>differential</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>didactic</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>against</t>
+          <t>piagetian</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>grader</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>assessing</t>
+          <t>conservation</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>implementing</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>ideal</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>metric</t>
+          <t>silvey</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>coloring</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>pasternack</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>times</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>effort</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>games</t>
+          <t>honor</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>glazier</t>
+          <t>hoyt</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>career</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>another</t>
+          <t>hebeler</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>part</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>ourselves</t>
+          <t>viii</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>grader</t>
+          <t>kb</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>piagetian</t>
+          <t>stein</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>stimuli</t>
+          <t>stimulating</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>horn</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>simulations-games</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>conservation</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>dw</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>procedures</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>judged</t>
+          <t>play</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>procedures</t>
+          <t>.1</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>selected</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>poor</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>didactic</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>bibliography</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>preadolescent</t>
+          <t>zuckerman</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>.1</t>
+          <t>problem-solving</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>books</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>styles</t>
+          <t>structures</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>stein</t>
+          <t>palmer</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>stimulating</t>
+          <t>making</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>reflective</t>
+          <t>furniture</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>childrens</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>selected</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>childrens</t>
+          <t>matrix</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>furniture</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>problem-solving</t>
+          <t>structure-of-intellect</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>books</t>
+          <t>utilizing</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>making</t>
+          <t>keep</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>palmer</t>
+          <t>ix</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>play</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>structures</t>
+          <t>displeasing</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>bibliography</t>
+          <t>don'ts</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>thirteen</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>kb</t>
+          <t>please</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>person</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>that</t>
+          <t>''</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>ideas</t>
+          <t>special</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>``</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>hebeler</t>
+          <t>actions</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>encounter</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>hoyt</t>
+          <t>feelings</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>than</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>silvey</t>
+          <t>lessons</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>rothenberg</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>men</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>structure-of-intellect</t>
+          <t>md</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>pasternack</t>
+          <t>stimulate</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>utilizing</t>
+          <t>greenberg</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>index</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>worth</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>coloring</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>blocks</t>
+          <t>let</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>matrix</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>keep</t>
+          <t>trying</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>simulations-games</t>
+          <t>summary</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>thirteen</t>
+          <t>spite</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>re</t>
+          <t>nagc</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>ix</t>
+          <t>isaacs</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>don'ts</t>
+          <t>ievements</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>displeasing</t>
+          <t>board</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>ann</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>zuckerman</t>
+          <t>reader</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>dw</t>
+          <t>ach</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>horn</t>
+          <t>courage</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>encounter</t>
+          <t>dear</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>worth</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>lessons</t>
+          <t>xvii</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>feelings</t>
+          <t>take</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>i'll</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>stimulate</t>
+          <t>responsive</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>see</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>greenberg</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>writing</t>
+          <t>california</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>rothenberg</t>
+          <t>evaluating</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>md</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
-        <is>
-          <t>spite</t>
-        </is>
-      </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>trying</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="KJ1" s="1" t="inlineStr">
-        <is>
-          <t>nagc</t>
-        </is>
-      </c>
-      <c r="KK1" s="1" t="inlineStr">
-        <is>
-          <t>isaacs</t>
-        </is>
-      </c>
-      <c r="KL1" s="1" t="inlineStr">
-        <is>
-          <t>board</t>
-        </is>
-      </c>
-      <c r="KM1" s="1" t="inlineStr">
-        <is>
-          <t>ann</t>
-        </is>
-      </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
-          <t>ach</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>ievements</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>''</t>
-        </is>
-      </c>
-      <c r="KR1" s="1" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="KS1" s="1" t="inlineStr">
-        <is>
-          <t>personal</t>
-        </is>
-      </c>
-      <c r="KT1" s="1" t="inlineStr">
-        <is>
-          <t>``</t>
-        </is>
-      </c>
-      <c r="KU1" s="1" t="inlineStr">
-        <is>
-          <t>actions</t>
-        </is>
-      </c>
-      <c r="KV1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="KW1" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="KX1" s="1" t="inlineStr">
-        <is>
-          <t>please</t>
-        </is>
-      </c>
-      <c r="KY1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="KZ1" s="1" t="inlineStr">
-        <is>
-          <t>effort</t>
-        </is>
-      </c>
-      <c r="LA1" s="1" t="inlineStr">
-        <is>
-          <t>honor</t>
-        </is>
-      </c>
-      <c r="LB1" s="1" t="inlineStr">
-        <is>
-          <t>part</t>
-        </is>
-      </c>
-      <c r="LC1" s="1" t="inlineStr">
-        <is>
-          <t>there</t>
-        </is>
-      </c>
-      <c r="LD1" s="1" t="inlineStr">
-        <is>
-          <t>times</t>
-        </is>
-      </c>
-      <c r="LE1" s="1" t="inlineStr">
-        <is>
-          <t>viii</t>
-        </is>
-      </c>
-      <c r="LF1" s="1" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="LG1" s="1" t="inlineStr">
-        <is>
-          <t>responsive</t>
-        </is>
-      </c>
-      <c r="LH1" s="1" t="inlineStr">
-        <is>
-          <t>reader</t>
-        </is>
-      </c>
-      <c r="LI1" s="1" t="inlineStr">
-        <is>
-          <t>i'll</t>
-        </is>
-      </c>
-      <c r="LJ1" s="1" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="LK1" s="1" t="inlineStr">
-        <is>
-          <t>courage</t>
-        </is>
-      </c>
-      <c r="LL1" s="1" t="inlineStr">
-        <is>
-          <t>see</t>
-        </is>
-      </c>
-      <c r="LM1" s="1" t="inlineStr">
-        <is>
-          <t>dear</t>
-        </is>
-      </c>
-      <c r="LN1" s="1" t="inlineStr">
-        <is>
-          <t>hand</t>
-        </is>
-      </c>
-      <c r="LO1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
-      <c r="LP1" s="1" t="inlineStr">
-        <is>
-          <t>let</t>
-        </is>
-      </c>
-      <c r="LQ1" s="1" t="inlineStr">
-        <is>
-          <t>xvii</t>
-        </is>
-      </c>
-      <c r="LR1" s="1" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
-      </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>evaluation</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>california</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="LX1" s="1" t="inlineStr">
-        <is>
           <t>in-service</t>
-        </is>
-      </c>
-      <c r="LY1" s="1" t="inlineStr">
-        <is>
-          <t>evaluating</t>
         </is>
       </c>
     </row>
@@ -2127,256 +1902,256 @@
         <v>1975</v>
       </c>
       <c r="D2" t="n">
-        <v>3.86</v>
+        <v>3.68</v>
       </c>
       <c r="E2" t="n">
-        <v>3.660000000000001</v>
+        <v>3.18</v>
       </c>
       <c r="F2" t="n">
-        <v>3.49</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.44</v>
+        <v>2.84</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="I2" t="n">
-        <v>2.93</v>
+        <v>2.76</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.75</v>
+        <v>2.14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.71</v>
+        <v>2.07</v>
       </c>
       <c r="M2" t="n">
-        <v>2.56</v>
+        <v>1.98</v>
       </c>
       <c r="N2" t="n">
-        <v>2.33</v>
+        <v>1.82</v>
       </c>
       <c r="O2" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>1.42</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.42</v>
       </c>
       <c r="U2" t="n">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
       <c r="V2" t="n">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.51</v>
+        <v>1.19</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.22</v>
+        <v>0.98</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.21</v>
+        <v>0.95</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.16</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.12</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.99</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.97</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.78</v>
+        <v>0.71</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.78</v>
+        <v>0.71</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.78</v>
+        <v>0.71</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.65</v>
+        <v>0.58</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="CJ2" t="n">
         <v>0.58</v>
@@ -2385,283 +2160,283 @@
         <v>0.58</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="CM2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CW2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CX2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CY2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="CZ2" t="n">
         <v>0.55</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="DA2" t="n">
         <v>0.55</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="DB2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="DE2" t="n">
         <v>0.54</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="DF2" t="n">
         <v>0.54</v>
       </c>
-      <c r="CS2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="CT2" t="n">
+      <c r="DG2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DM2" t="n">
         <v>0.52</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DN2" t="n">
         <v>0.52</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DO2" t="n">
         <v>0.52</v>
       </c>
-      <c r="CW2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CZ2" t="n">
+      <c r="DP2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="EA2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="EB2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="EC2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="ED2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="EE2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="EF2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="EG2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="EH2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="EI2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="EJ2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="EK2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="EL2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="EM2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="EN2" t="n">
         <v>0.5</v>
       </c>
-      <c r="DN2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DO2" t="n">
+      <c r="EO2" t="n">
         <v>0.49</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="EP2" t="n">
         <v>0.49</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="EQ2" t="n">
         <v>0.49</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="ER2" t="n">
         <v>0.49</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="ES2" t="n">
         <v>0.49</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="ET2" t="n">
         <v>0.49</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="EU2" t="n">
         <v>0.49</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="EV2" t="n">
         <v>0.49</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="EW2" t="n">
         <v>0.49</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="EX2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="EZ2" t="n">
         <v>0.48</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="FA2" t="n">
         <v>0.48</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="FB2" t="n">
         <v>0.48</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="FC2" t="n">
         <v>0.48</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="FD2" t="n">
         <v>0.48</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="FE2" t="n">
         <v>0.48</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="FF2" t="n">
         <v>0.48</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="FG2" t="n">
         <v>0.48</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="FH2" t="n">
         <v>0.48</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="FI2" t="n">
         <v>0.48</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="FJ2" t="n">
         <v>0.48</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="FK2" t="n">
         <v>0.48</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="FL2" t="n">
         <v>0.48</v>
       </c>
-      <c r="EK2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="EL2" t="n">
+      <c r="FM2" t="n">
         <v>0.47</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="FN2" t="n">
         <v>0.47</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="FO2" t="n">
         <v>0.47</v>
       </c>
-      <c r="EO2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="EQ2" t="n">
+      <c r="FP2" t="n">
         <v>0.46</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="FQ2" t="n">
         <v>0.46</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="FR2" t="n">
         <v>0.46</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="FS2" t="n">
         <v>0.46</v>
       </c>
-      <c r="EU2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="FB2" t="n">
+      <c r="FT2" t="n">
         <v>0.45</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FU2" t="n">
         <v>0.45</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FV2" t="n">
         <v>0.45</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FW2" t="n">
         <v>0.45</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FX2" t="n">
         <v>0.45</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FY2" t="n">
         <v>0.45</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FZ2" t="n">
         <v>0.45</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.44</v>
       </c>
       <c r="GA2" t="n">
         <v>0.44</v>
@@ -2679,46 +2454,46 @@
         <v>0.44</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="GT2" t="n">
         <v>0.42</v>
@@ -2730,19 +2505,19 @@
         <v>0.42</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="HB2" t="n">
         <v>0.41</v>
@@ -2757,25 +2532,25 @@
         <v>0.41</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="HM2" t="n">
         <v>0.4</v>
@@ -2817,10 +2592,10 @@
         <v>0.4</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="IB2" t="n">
         <v>0.38</v>
@@ -2835,298 +2610,163 @@
         <v>0.38</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="II2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
